--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPMW_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_LSPMW_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.06378035116493</v>
+        <v>-1.254546044999286</v>
       </c>
       <c r="D2">
-        <v>0.2874791882393388</v>
+        <v>0.2181996216602013</v>
       </c>
       <c r="E2">
         <v>0.8711826111144448</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.07870756260256803</v>
+        <v>-0.07852526377260828</v>
       </c>
       <c r="D3">
-        <v>0.9372683552604935</v>
+        <v>0.9378705727543892</v>
       </c>
       <c r="E3">
         <v>0.8711826111144448</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.708376671704261</v>
+        <v>2.279583853439159</v>
       </c>
       <c r="D4">
-        <v>0.006784161490229978</v>
+        <v>0.02902757964453562</v>
       </c>
       <c r="E4">
         <v>0.8711826111144448</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.7107520402950179</v>
+        <v>0.7871570161887943</v>
       </c>
       <c r="D5">
-        <v>0.4772707997917822</v>
+        <v>0.4366429547782857</v>
       </c>
       <c r="E5">
         <v>0.8711826111144448</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.8401933015530496</v>
+        <v>0.9935572529592049</v>
       </c>
       <c r="D6">
-        <v>0.400839876196077</v>
+        <v>0.3274572274493013</v>
       </c>
       <c r="E6">
         <v>0.8929941730651872</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>3.530667253116058</v>
+        <v>4.443285507125025</v>
       </c>
       <c r="D7">
-        <v>0.0004182195482302919</v>
+        <v>8.939871697943857E-05</v>
       </c>
       <c r="E7">
         <v>0.8929941730651872</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.631227302989932</v>
+        <v>1.914359968027828</v>
       </c>
       <c r="D8">
-        <v>0.102904857841486</v>
+        <v>0.06402064744300362</v>
       </c>
       <c r="E8">
         <v>0.8929941730651872</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.566295904560276</v>
+        <v>2.518119980148215</v>
       </c>
       <c r="D9">
-        <v>0.01030775075079737</v>
+        <v>0.01667219667356412</v>
       </c>
       <c r="E9">
         <v>0.8727840943734453</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.7807296944181376</v>
+        <v>1.30584344453947</v>
       </c>
       <c r="D10">
-        <v>0.4349981661204727</v>
+        <v>0.2003724854532902</v>
       </c>
       <c r="E10">
         <v>0.8727840943734453</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.695073400167577</v>
+        <v>-1.890298525990514</v>
       </c>
       <c r="D11">
-        <v>0.09012328141801973</v>
+        <v>0.06726686022743644</v>
       </c>
       <c r="E11">
         <v>0.8174300484304907</v>
